--- a/Compare outputs.xlsx
+++ b/Compare outputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Programing\HighPassFilter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882823D6-16BF-4E70-B802-7322A787B51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02132714-A142-471A-A82D-5DAEA0A3157E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13605" yWindow="2535" windowWidth="25305" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -247,13 +247,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -262,13 +265,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -592,34 +592,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>4.1000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9E-2</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1209,7 +1209,23 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Porównanie średniego czasu (w sekundach) wykonania algorytmu w C++ i ASM dla N wątków na średniego rozmiaru bitmapie wejściowej (512 x 512 px)</a:t>
+              <a:t>Porównanie średniego czasu (w sekundach) wykonania algorytmu w C++ i ASM na</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> różnej ilości</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t> wątków na średniego rozmiaru bitmapie wejściowej (640</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> x 426 px</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1377,46 +1393,13 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-C938-44E3-8882-DB65340DB841}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
@@ -1547,19 +1530,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2365,19 +2348,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.157</c:v>
+                  <c:v>1.3340000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11899999999999999</c:v>
+                  <c:v>0.79700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8000000000000004E-2</c:v>
+                  <c:v>0.64200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7999999999999995E-2</c:v>
+                  <c:v>0.55400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0999999999999998E-2</c:v>
+                  <c:v>0.49099999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2696,7 +2679,7 @@
         <c:axId val="2014622464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.30000000000000004"/>
+          <c:max val="1.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2739,6 +2722,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9779987636445808E-2"/>
+              <c:y val="0.38777769966254211"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6232,8 +6223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6242,138 +6233,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="22"/>
+      <c r="L1" s="25"/>
       <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="23" t="s">
+      <c r="W1" s="28"/>
+      <c r="X1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="23" t="s">
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="23" t="s">
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="22" t="s">
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="22"/>
+      <c r="AE1" s="25"/>
       <c r="AG1" t="s">
         <v>9</v>
       </c>
-      <c r="AN1" s="26" t="s">
+      <c r="AN1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="23" t="s">
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="23" t="s">
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="23" t="s">
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="22" t="s">
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AW1" s="22"/>
+      <c r="AW1" s="25"/>
       <c r="AY1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="V2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="W2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Y2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="Z2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="AB2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="28" t="s">
+      <c r="AC2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AD2" s="27" t="s">
+      <c r="AD2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="28" t="s">
+      <c r="AE2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="AG2" t="s">
@@ -6418,31 +6409,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="14">
-        <v>1.6E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D3" s="15">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E3" s="18">
-        <v>1.7999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F3" s="19">
         <v>1.9E-2</v>
       </c>
       <c r="G3" s="18">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H3" s="19">
         <v>0.02</v>
       </c>
       <c r="I3" s="18">
-        <v>1.0999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="J3" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="K3" s="10">
-        <v>8.9999999999999993E-3</v>
+      <c r="K3" s="18">
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="L3" s="10">
         <v>1.2999999999999999E-2</v>
@@ -6451,31 +6442,31 @@
         <v>1</v>
       </c>
       <c r="V3" s="14">
-        <v>0.154</v>
+        <v>1.3049999999999999</v>
       </c>
       <c r="W3" s="15">
         <v>0.20300000000000001</v>
       </c>
       <c r="X3" s="18">
-        <v>0.11700000000000001</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="Y3" s="19">
         <v>0.13900000000000001</v>
       </c>
       <c r="Z3" s="18">
-        <v>0.113</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="AA3" s="19">
         <v>0.11600000000000001</v>
       </c>
       <c r="AB3" s="18">
-        <v>8.8999999999999996E-2</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="AC3" s="19">
         <v>0.114</v>
       </c>
       <c r="AD3" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="AE3" s="10">
         <v>8.7999999999999995E-2</v>
@@ -6519,31 +6510,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="14">
-        <v>2.5000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D4" s="15">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="E4" s="18">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F4" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G4" s="18">
-        <v>1.6E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H4" s="19">
         <v>1.2E-2</v>
       </c>
       <c r="I4" s="18">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="J4" s="19">
         <v>0.01</v>
       </c>
-      <c r="K4" s="10">
-        <v>1.2E-2</v>
+      <c r="K4" s="18">
+        <v>1.4E-2</v>
       </c>
       <c r="L4" s="10">
         <v>0.01</v>
@@ -6553,31 +6544,31 @@
         <v>2</v>
       </c>
       <c r="V4" s="14">
-        <v>0.16600000000000001</v>
+        <v>1.4039999999999999</v>
       </c>
       <c r="W4" s="15">
         <v>0.20100000000000001</v>
       </c>
       <c r="X4" s="18">
-        <v>0.128</v>
+        <v>0.752</v>
       </c>
       <c r="Y4" s="19">
         <v>0.11600000000000001</v>
       </c>
       <c r="Z4" s="18">
-        <v>9.9000000000000005E-2</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="AA4" s="19">
         <v>0.112</v>
       </c>
       <c r="AB4" s="18">
-        <v>8.5999999999999993E-2</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="AC4" s="19">
         <v>0.105</v>
       </c>
       <c r="AD4" s="10">
-        <v>8.7999999999999995E-2</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="AE4" s="10">
         <v>0.09</v>
@@ -6621,31 +6612,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="14">
-        <v>2.1999999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D5" s="15">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="E5" s="18">
-        <v>1.4E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="F5" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G5" s="18">
-        <v>1.0999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H5" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="I5" s="18">
-        <v>0.01</v>
+        <v>1.4E-2</v>
       </c>
       <c r="J5" s="19">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K5" s="10">
-        <v>0.01</v>
+      <c r="K5" s="18">
+        <v>1.4E-2</v>
       </c>
       <c r="L5" s="10">
         <v>0.01</v>
@@ -6654,33 +6645,33 @@
         <v>3</v>
       </c>
       <c r="V5" s="14">
-        <v>0.161</v>
+        <v>1.3160000000000001</v>
       </c>
       <c r="W5" s="15">
         <v>0.20100000000000001</v>
       </c>
       <c r="X5" s="18">
-        <v>0.114</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="Y5" s="19">
         <v>0.115</v>
       </c>
       <c r="Z5" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="AA5" s="19">
         <v>0.112</v>
       </c>
       <c r="AB5" s="18">
-        <v>8.7999999999999995E-2</v>
+        <v>0.754</v>
       </c>
       <c r="AC5" s="19">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="AD5" s="10">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="AE5" s="29">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="AE5" s="24">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="AM5" s="11">
@@ -6722,31 +6713,31 @@
         <v>4</v>
       </c>
       <c r="C6" s="14">
-        <v>1.7999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D6" s="15">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="E6" s="18">
-        <v>1.4999999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F6" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G6" s="18">
-        <v>0.01</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H6" s="19">
         <v>1.2E-2</v>
       </c>
       <c r="I6" s="18">
-        <v>8.9999999999999993E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J6" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="K6" s="10">
-        <v>0.01</v>
+      <c r="K6" s="18">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="L6" s="10">
         <v>1.2E-2</v>
@@ -6755,33 +6746,33 @@
         <v>4</v>
       </c>
       <c r="V6" s="14">
-        <v>0.159</v>
+        <v>1.331</v>
       </c>
       <c r="W6" s="15">
         <v>0.20300000000000001</v>
       </c>
       <c r="X6" s="18">
-        <v>0.115</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="Y6" s="19">
         <v>0.13300000000000001</v>
       </c>
       <c r="Z6" s="18">
-        <v>9.4E-2</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="AA6" s="19">
         <v>0.109</v>
       </c>
       <c r="AB6" s="18">
-        <v>0.09</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="AC6" s="19">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="AD6" s="10">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="AE6" s="29">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="AE6" s="24">
         <v>0.10100000000000001</v>
       </c>
       <c r="AM6" s="11">
@@ -6823,31 +6814,31 @@
         <v>5</v>
       </c>
       <c r="C7" s="14">
-        <v>1.7000000000000001E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D7" s="15">
         <v>2.3E-2</v>
       </c>
       <c r="E7" s="18">
-        <v>1.4E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F7" s="19">
         <v>1.9E-2</v>
       </c>
       <c r="G7" s="18">
-        <v>0.01</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H7" s="19">
         <v>1.4E-2</v>
       </c>
       <c r="I7" s="18">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J7" s="19">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K7" s="10">
-        <v>1.4E-2</v>
+      <c r="K7" s="18">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="L7" s="9">
         <v>1.0999999999999999E-2</v>
@@ -6857,33 +6848,33 @@
         <v>5</v>
       </c>
       <c r="V7" s="14">
-        <v>0.161</v>
+        <v>1.32</v>
       </c>
       <c r="W7" s="15">
         <v>0.215</v>
       </c>
       <c r="X7" s="18">
-        <v>0.11799999999999999</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="Y7" s="19">
         <v>0.115</v>
       </c>
       <c r="Z7" s="18">
-        <v>9.7000000000000003E-2</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="AA7" s="19">
         <v>0.11</v>
       </c>
       <c r="AB7" s="18">
-        <v>8.6999999999999994E-2</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="AC7" s="19">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="AD7" s="10">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="AE7" s="29">
+        <v>0.49</v>
+      </c>
+      <c r="AE7" s="24">
         <v>0.10199999999999999</v>
       </c>
       <c r="AM7" s="11">
@@ -6925,30 +6916,30 @@
         <v>6</v>
       </c>
       <c r="C8" s="14">
-        <v>1.4999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D8" s="15">
         <v>2.4E-2</v>
       </c>
       <c r="E8" s="18">
-        <v>1.2999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F8" s="19">
         <v>1.4E-2</v>
       </c>
       <c r="G8" s="18">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="H8" s="19">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="I8" s="18">
-        <v>1.0999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="J8" s="19">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="18">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="L8" s="9">
@@ -6959,33 +6950,33 @@
         <v>6</v>
       </c>
       <c r="V8" s="14">
-        <v>0.16</v>
+        <v>1.3120000000000001</v>
       </c>
       <c r="W8" s="15">
         <v>0.20100000000000001</v>
       </c>
       <c r="X8" s="18">
-        <v>0.121</v>
+        <v>0.8</v>
       </c>
       <c r="Y8" s="19">
         <v>0.114</v>
       </c>
       <c r="Z8" s="18">
-        <v>9.6000000000000002E-2</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="AA8" s="19">
         <v>0.113</v>
       </c>
       <c r="AB8" s="18">
-        <v>8.5999999999999993E-2</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="AC8" s="19">
         <v>0.10100000000000001</v>
       </c>
       <c r="AD8" s="10">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="AE8" s="29">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="AE8" s="24">
         <v>0.105</v>
       </c>
       <c r="AM8" s="11">
@@ -7027,31 +7018,31 @@
         <v>7</v>
       </c>
       <c r="C9" s="14">
-        <v>1.7000000000000001E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D9" s="15">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E9" s="18">
-        <v>1.2E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F9" s="19">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="G9" s="18">
-        <v>1.0999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H9" s="19">
         <v>1.6E-2</v>
       </c>
       <c r="I9" s="18">
-        <v>1.0999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="J9" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="K9" s="10">
-        <v>0.01</v>
+      <c r="K9" s="18">
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="L9" s="9">
         <v>1.2E-2</v>
@@ -7061,31 +7052,31 @@
         <v>7</v>
       </c>
       <c r="V9" s="14">
-        <v>0.159</v>
+        <v>1.3160000000000001</v>
       </c>
       <c r="W9" s="15">
         <v>0.20200000000000001</v>
       </c>
       <c r="X9" s="18">
-        <v>0.123</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="Y9" s="19">
         <v>0.113</v>
       </c>
       <c r="Z9" s="18">
-        <v>9.7000000000000003E-2</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="AA9" s="19">
         <v>0.11</v>
       </c>
       <c r="AB9" s="18">
-        <v>8.4000000000000005E-2</v>
+        <v>0.436</v>
       </c>
       <c r="AC9" s="19">
         <v>0.10199999999999999</v>
       </c>
       <c r="AD9" s="10">
-        <v>9.5000000000000001E-2</v>
+        <v>0.47</v>
       </c>
       <c r="AE9" s="9">
         <v>9.5000000000000001E-2</v>
@@ -7129,31 +7120,31 @@
         <v>8</v>
       </c>
       <c r="C10" s="14">
-        <v>1.9E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D10" s="15">
         <v>2.3E-2</v>
       </c>
       <c r="E10" s="18">
-        <v>1.2E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="F10" s="19">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G10" s="18">
-        <v>0.01</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H10" s="19">
         <v>1.2E-2</v>
       </c>
       <c r="I10" s="18">
-        <v>8.9999999999999993E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J10" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K10" s="10">
-        <v>1.0999999999999999E-2</v>
+      <c r="K10" s="18">
+        <v>1.2E-2</v>
       </c>
       <c r="L10" s="10">
         <v>1.2999999999999999E-2</v>
@@ -7163,33 +7154,33 @@
         <v>8</v>
       </c>
       <c r="V10" s="14">
-        <v>0.151</v>
+        <v>1.331</v>
       </c>
       <c r="W10" s="15">
         <v>0.20599999999999999</v>
       </c>
       <c r="X10" s="18">
-        <v>0.11899999999999999</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="Y10" s="19">
         <v>0.113</v>
       </c>
       <c r="Z10" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="AA10" s="19">
         <v>0.109</v>
       </c>
       <c r="AB10" s="18">
-        <v>9.0999999999999998E-2</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="AC10" s="19">
         <v>0.105</v>
       </c>
       <c r="AD10" s="10">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="AE10" s="29">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="AE10" s="24">
         <v>0.105</v>
       </c>
       <c r="AM10" s="11">
@@ -7231,31 +7222,31 @@
         <v>9</v>
       </c>
       <c r="C11" s="14">
-        <v>1.6E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D11" s="15">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="E11" s="18">
-        <v>1.2E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F11" s="19">
         <v>1.6E-2</v>
       </c>
       <c r="G11" s="18">
-        <v>1.2E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H11" s="19">
         <v>0.01</v>
       </c>
       <c r="I11" s="18">
-        <v>1.4E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="J11" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="K11" s="10">
-        <v>0.01</v>
+      <c r="K11" s="18">
+        <v>1.6E-2</v>
       </c>
       <c r="L11" s="10">
         <v>0.01</v>
@@ -7264,33 +7255,33 @@
         <v>9</v>
       </c>
       <c r="V11" s="14">
-        <v>0.15</v>
+        <v>1.3320000000000001</v>
       </c>
       <c r="W11" s="15">
         <v>0.20399999999999999</v>
       </c>
       <c r="X11" s="18">
-        <v>0.12</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="Y11" s="19">
         <v>0.11799999999999999</v>
       </c>
       <c r="Z11" s="18">
-        <v>9.4E-2</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="AA11" s="19">
         <v>0.11600000000000001</v>
       </c>
       <c r="AB11" s="18">
-        <v>9.1999999999999998E-2</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="AC11" s="19">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="AD11" s="10">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="AE11" s="29">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="AE11" s="24">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="AM11" s="11">
@@ -7332,31 +7323,31 @@
         <v>10</v>
       </c>
       <c r="C12" s="14">
-        <v>1.7999999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D12" s="15">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="E12" s="18">
-        <v>1.2999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F12" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G12" s="18">
-        <v>0.01</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H12" s="19">
         <v>1.2E-2</v>
       </c>
       <c r="I12" s="18">
-        <v>1.0999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J12" s="19">
         <v>0.01</v>
       </c>
-      <c r="K12" s="10">
-        <v>1.0999999999999999E-2</v>
+      <c r="K12" s="18">
+        <v>1.2E-2</v>
       </c>
       <c r="L12" s="10">
         <v>1.0999999999999999E-2</v>
@@ -7365,33 +7356,33 @@
         <v>10</v>
       </c>
       <c r="V12" s="14">
-        <v>0.15</v>
+        <v>1.37</v>
       </c>
       <c r="W12" s="15">
         <v>0.20300000000000001</v>
       </c>
       <c r="X12" s="18">
-        <v>0.111</v>
+        <v>0.85</v>
       </c>
       <c r="Y12" s="19">
         <v>0.13100000000000001</v>
       </c>
       <c r="Z12" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="AA12" s="19">
         <v>0.115</v>
       </c>
       <c r="AB12" s="18">
-        <v>0.09</v>
+        <v>0.436</v>
       </c>
       <c r="AC12" s="19">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="AD12" s="10">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="AE12" s="29">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="AE12" s="24">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="AM12" s="11">
@@ -7429,13 +7420,13 @@
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="16">
         <f>ROUND(AVERAGE(C3:C12), 3)</f>
-        <v>1.7999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D13" s="16">
         <f t="shared" ref="D13:L13" si="0">ROUND(AVERAGE(D3:D12), 3)</f>
@@ -7443,7 +7434,7 @@
       </c>
       <c r="E13" s="16">
         <f t="shared" si="0"/>
-        <v>1.4E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F13" s="16">
         <f t="shared" si="0"/>
@@ -7451,7 +7442,7 @@
       </c>
       <c r="G13" s="16">
         <f>ROUND(AVERAGE(G3:G12), 3)</f>
-        <v>1.2E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="0"/>
@@ -7459,7 +7450,7 @@
       </c>
       <c r="I13" s="16">
         <f t="shared" si="0"/>
-        <v>1.0999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
@@ -7467,19 +7458,19 @@
       </c>
       <c r="K13" s="16">
         <f>ROUND(AVERAGE(K3:K12), 3)</f>
-        <v>1.0999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="0"/>
         <v>1.2E-2</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="T13" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U13" s="25"/>
+      <c r="U13" s="26"/>
       <c r="V13" s="16">
         <f>ROUND(AVERAGE(V3:V12), 3)</f>
-        <v>0.157</v>
+        <v>1.3340000000000001</v>
       </c>
       <c r="W13" s="16">
         <f t="shared" ref="W13:AE13" si="1">ROUND(AVERAGE(W3:W12), 3)</f>
@@ -7487,7 +7478,7 @@
       </c>
       <c r="X13" s="16">
         <f t="shared" si="1"/>
-        <v>0.11899999999999999</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="Y13" s="16">
         <f t="shared" si="1"/>
@@ -7495,7 +7486,7 @@
       </c>
       <c r="Z13" s="16">
         <f t="shared" si="1"/>
-        <v>9.8000000000000004E-2</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="AA13" s="16">
         <f t="shared" si="1"/>
@@ -7503,7 +7494,7 @@
       </c>
       <c r="AB13" s="16">
         <f t="shared" si="1"/>
-        <v>8.7999999999999995E-2</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="AC13" s="16">
         <f t="shared" si="1"/>
@@ -7511,16 +7502,16 @@
       </c>
       <c r="AD13" s="16">
         <f t="shared" si="1"/>
-        <v>9.0999999999999998E-2</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="AE13" s="16">
         <f t="shared" si="1"/>
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="AL13" s="25" t="s">
+      <c r="AL13" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AM13" s="25"/>
+      <c r="AM13" s="26"/>
       <c r="AN13" s="16">
         <f>ROUND(AVERAGE(AN3:AN12), 3)</f>
         <v>1.944</v>
@@ -7564,12 +7555,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
@@ -7582,6 +7567,12 @@
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
